--- a/moyusi/Keywords/Web/全部已购客户.xlsx
+++ b/moyusi/Keywords/Web/全部已购客户.xlsx
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击_className</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>search-in</t>
   </si>
   <si>
@@ -183,9 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-dialog__headerbtn</t>
-  </si>
-  <si>
     <t>点击-已购客户详情关闭按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +197,13 @@
   <si>
     <t>search-in</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[4]/div/div[1]/button/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_xpath</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,10 +706,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -730,13 +730,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -758,13 +758,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -772,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -786,38 +786,38 @@
         <v>9</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="18">
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -838,14 +838,14 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -863,16 +863,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -894,13 +891,13 @@
       </c>
       <c r="B19" s="14"/>
       <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -908,13 +905,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -936,13 +933,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -950,13 +947,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F23" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -964,22 +961,22 @@
         <v>9</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/moyusi/Keywords/Web/全部已购客户.xlsx
+++ b/moyusi/Keywords/Web/全部已购客户.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,20 +69,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查点-资料配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资料配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://101.132.157.87:8080/#/store/brandsManage</t>
-  </si>
-  <si>
-    <t>检查点_url</t>
-  </si>
-  <si>
     <t>输入关键词搜索</t>
   </si>
   <si>
@@ -121,9 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">全部已购客户 </t>
-  </si>
-  <si>
     <t>点击-“全部已购客户”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,17 +151,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@class="comm-opera"]/button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-第一个客户详情按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-dialog__body</t>
-  </si>
-  <si>
     <t>检查点-已购客户详情窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,18 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://101.132.157.87:8080/#/store/allMemberAdministration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://101.132.157.87:8080/#/store/allMemberAdministration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-全部已购客户URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>search-in</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +172,26 @@
   </si>
   <si>
     <t>点击_xpath</t>
+  </si>
+  <si>
+    <t>已购客户详情</t>
+  </si>
+  <si>
+    <t>//*[@class="left-condition"]/div[1]/div[4]/div[1]/div[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>全部已购客户</t>
+  </si>
+  <si>
+    <t>全部已购客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-全部已购客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="info-cont"]//tr[1]/td[6]/div[1]/div[1]/button/span[1]</t>
   </si>
 </sst>
 </file>
@@ -615,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -665,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="6" t="s">
@@ -678,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="11">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="10" t="s">
@@ -687,29 +675,28 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -727,16 +714,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -744,13 +731,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -758,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -772,13 +759,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -786,38 +773,35 @@
         <v>9</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -835,16 +819,15 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="14"/>
       <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -863,13 +846,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -886,46 +869,45 @@
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
+      <c r="B19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>17</v>
+      <c r="D21" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -933,13 +915,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="F22" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -947,36 +929,22 @@
         <v>9</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F23" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="E24" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
